--- a/biology/Médecine/Édouard_Nyankoye_Lamah/Édouard_Nyankoye_Lamah.xlsx
+++ b/biology/Médecine/Édouard_Nyankoye_Lamah/Édouard_Nyankoye_Lamah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Nyankoye_Lamah</t>
+          <t>Édouard_Nyankoye_Lamah</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Édouard Nyankoye Lamah est un homme politique guinéen, ancien ministre des Affaires étrangères, puis ministre de la Santé et de l'Hygiène publique[1].   
+Édouard Nyankoye Lamah est un homme politique guinéen, ancien ministre des Affaires étrangères, puis ministre de la Santé et de l'Hygiène publique.   
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Nyankoye_Lamah</t>
+          <t>Édouard_Nyankoye_Lamah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est ministre des Affaires étrangères avant d’être remplacé par François Louceiny Fall[2].
-Il est nommé par le décret du 26 mai 2018 comme Ministre de la Santé en remplacement du docteur Abdourahmane Diallo dans le gouvernement Kassory I en 2018[3], avant d’être remplacé par le médecin-colonel Remy Lamah en novembre 2019[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est ministre des Affaires étrangères avant d’être remplacé par François Louceiny Fall.
+Il est nommé par le décret du 26 mai 2018 comme Ministre de la Santé en remplacement du docteur Abdourahmane Diallo dans le gouvernement Kassory I en 2018, avant d’être remplacé par le médecin-colonel Remy Lamah en novembre 2019.
 </t>
         </is>
       </c>
